--- a/output/3_Regression/c23/c23table_mape.xlsx
+++ b/output/3_Regression/c23/c23table_mape.xlsx
@@ -464,7 +464,7 @@
         <v>0.1815401788502461</v>
       </c>
       <c r="G3">
-        <v>1.69997707032256</v>
+        <v>1.699977070322561</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>0.1398654428860252</v>
       </c>
       <c r="G4">
-        <v>1.40743871459461</v>
+        <v>1.407438714594611</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -694,7 +694,7 @@
         <v>0.0525811316628087</v>
       </c>
       <c r="G13">
-        <v>0.3883859687738885</v>
+        <v>0.3883859687738884</v>
       </c>
     </row>
   </sheetData>
